--- a/final project/EOD.xlsx
+++ b/final project/EOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="4">
   <si>
     <t>date</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>27 Dec 2018</t>
+  </si>
+  <si>
+    <t>02 Jan 2019</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -752,6 +755,54 @@
         <v>350</v>
       </c>
     </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>499.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>499.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>499.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>499.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>499.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>499.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/final project/EOD.xlsx
+++ b/final project/EOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="5">
   <si>
     <t>date</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>02 Jan 2019</t>
+  </si>
+  <si>
+    <t>04 Jan 2019</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,6 +806,14 @@
         <v>499.8</v>
       </c>
     </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>199.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/final project/EOD.xlsx
+++ b/final project/EOD.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\project_new\Group2_Yesodot\final project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F81D668-2838-4648-9497-0A6FE5ACF2E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="EOD01" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -35,17 +29,20 @@
   </si>
   <si>
     <t>04 Jan 2019</t>
+  </si>
+  <si>
+    <t>06 Jan 2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -78,19 +75,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -132,7 +121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,27 +153,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,24 +187,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,19 +362,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -437,7 +385,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -445,12 +393,20 @@
         <v>499.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>199.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/final project/EOD.xlsx
+++ b/final project/EOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>06 Jan 2019</t>
+  </si>
+  <si>
+    <t>07 Jan 2019</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,6 +412,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
